--- a/App/backend/excel_to_databases/all_products.xlsx
+++ b/App/backend/excel_to_databases/all_products.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="113">
   <si>
     <t xml:space="preserve">0</t>
   </si>
@@ -46,9 +46,6 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serial Number</t>
   </si>
   <si>
@@ -64,25 +61,157 @@
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve">initial_quantity</t>
-  </si>
-  <si>
     <t xml:space="preserve">product_size</t>
   </si>
   <si>
     <t xml:space="preserve">product_color</t>
   </si>
   <si>
-    <t xml:space="preserve">mens wear</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_products/images/</t>
+    <t xml:space="preserve">Casual Shirts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual_Shirts_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinary Choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual_Shirts_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual_Shirts_3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual_Shirts_4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual_Shirts_5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual_Shirts_6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual_Shirts_7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup_3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup_4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup_5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup_6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup_7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfumes_9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirts_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirts_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirts_3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirts_4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirts_5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirts_6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirts_7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
     </r>
     <r>
       <rPr>
@@ -91,29 +220,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ladies wear</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_products/images/</t>
+      <t xml:space="preserve">1.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
     </r>
     <r>
       <rPr>
@@ -122,29 +239,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dksald</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_products/images/</t>
+      <t xml:space="preserve">2.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
     </r>
     <r>
       <rPr>
@@ -153,29 +258,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daskldaksdl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_products/images/</t>
+      <t xml:space="preserve">3.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
     </r>
     <r>
       <rPr>
@@ -184,26 +277,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">fslfkd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jfsdkfj</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_products/images/</t>
+      <t xml:space="preserve">4.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
     </r>
     <r>
       <rPr>
@@ -212,20 +296,331 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purple</t>
+      <t xml:space="preserve">5.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Shoes_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports_Shoes_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports_Shoes_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports_Shoes_3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports_Shoes_4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports_Shoes_5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports_Shoes_6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglasses_10.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Watch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10.jpg</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">reference_for_all_orders</t>
@@ -268,9 +663,6 @@
   </si>
   <si>
     <t xml:space="preserve">child1_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,7</t>
   </si>
   <si>
     <t xml:space="preserve">1,6</t>
@@ -280,10 +672,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;&quot;($&quot;#,##0.00\);\-"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00;&quot;($&quot;#,##0.00\);\-"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -371,11 +762,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,18 +787,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,34 +821,28 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,22 +850,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>434</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,22 +873,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>589</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,22 +896,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>483</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,22 +919,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,22 +942,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>218</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,22 +965,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>344</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,22 +988,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>787</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,22 +1011,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>424</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,22 +1034,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1312</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,22 +1057,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>676</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,22 +1080,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,22 +1103,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>6756</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,22 +1126,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>354</v>
       </c>
+      <c r="F15" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,22 +1149,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="F16" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,22 +1172,1172 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>534</v>
       </c>
+      <c r="F17" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>589</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>483</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>787</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>676</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>6756</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="B31" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>589</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>483</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>787</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>676</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>6756</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>589</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>483</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>787</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>676</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>6756</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>676</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>6756</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -826,46 +2362,46 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -890,22 +2426,22 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -927,37 +2463,37 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
